--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C98FC501-D3C7-4A42-8B77-9423ED3E3E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipce Workspace\OpenCartV1.0\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2E3DC-3336-42B9-990B-8E11DE3B7509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Email</t>
   </si>
@@ -45,9 +49,6 @@
   </si>
   <si>
     <t>Invalid</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
   </si>
   <si>
     <t>invalid</t>
@@ -374,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,46 +421,63 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
